--- a/biology/Mycologie/Quinone_outside_inhibitors/Quinone_outside_inhibitors.xlsx
+++ b/biology/Mycologie/Quinone_outside_inhibitors/Quinone_outside_inhibitors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les QoI, ou Quinone outside inhibitors (inhibiteurs externes de la quinone) sont un groupe de molécules fongicides utilisés en  agriculture.
 Les QoI sont des fongicides qui agissent comme inhibiteurs du site d'oxydation du coenzyme Q situé sur la face externe du cytochrome b.
@@ -512,7 +524,9 @@
           <t>Classification chimique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les QoI résultent de la fusion de trois familles de fongicides, la famille bien connue des strobilurines et de deux nouvelles familles représentées par la fenamidone et la famoxadone. 
 Certaines strobilurines sont l'azoxystrobine, le krésoxim-méthyl, la picoxystrobine, la pyraclostrobine et la trifloxystrobine. 
@@ -545,7 +559,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces fongicides sont utilisés sur de nombreuses cultures, tels que les céréales, la vigne, les cucurbitacées, les tomates et les pommes de terre. 
 Ils permettent en particulier de lutter contre le mildiou et contre l'oïdium.
@@ -579,10 +595,12 @@
           <t>Risque de résistance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous ces fongicides ayant un site d'action unique, ils sont de ce fait exposés aux phénomènes de résistance croisée et doivent être gérés correctement pour éviter l'apparition du phénomène de résistance fongicide. 
-Des phénomènes de résistance fongicides ont été observés chez plusieurs cultures. Afin de limiter ou d'empêcher l'apparition de résistance, des limitations d'emploi sont préconisées. Il est recommandé d'alterner les familles chimiques  et de limiter le nombre d'applications consécutives par saison[1]. Cependant, malgré des recommandations de plus en plus restrictives, la résistance du mildiou aux QoI se répand dans les vignobles français.
+Des phénomènes de résistance fongicides ont été observés chez plusieurs cultures. Afin de limiter ou d'empêcher l'apparition de résistance, des limitations d'emploi sont préconisées. Il est recommandé d'alterner les familles chimiques  et de limiter le nombre d'applications consécutives par saison. Cependant, malgré des recommandations de plus en plus restrictives, la résistance du mildiou aux QoI se répand dans les vignobles français.
 </t>
         </is>
       </c>
